--- a/biology/Botanique/Agave_toumeyana/Agave_toumeyana.xlsx
+++ b/biology/Botanique/Agave_toumeyana/Agave_toumeyana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agave toumeyana est une espèce de plante de la famille des Asparagaceae. Il est endémique du centre de l'Arizona[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agave toumeyana est une espèce de plante de la famille des Asparagaceae. Il est endémique du centre de l'Arizona.
 </t>
         </is>
       </c>
@@ -511,11 +523,48 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agave toumeyana forme des touffes denses de rosettes, mesurant rarement plus de 50  cm de hauteur. Les tiges florales peuvent atteindre 3 mètres, portant des fleurs blanc verdâtre[2],[3],[4]. La plante a été nommée en l'honneur de James W. Toumey[5].
-Sous espèces
-Agave coetocapnia subsp. clivicola
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agave toumeyana forme des touffes denses de rosettes, mesurant rarement plus de 50  cm de hauteur. Les tiges florales peuvent atteindre 3 mètres, portant des fleurs blanc verdâtre. La plante a été nommée en l'honneur de James W. Toumey.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Agave_toumeyana</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agave_toumeyana</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agave coetocapnia subsp. clivicola
 Agave coetocapnia subsp. pueblensis </t>
         </is>
       </c>
